--- a/kma_mm/kma_be/src/exports/phulucbang/phu_luc_bang_diem_sinh_vien_2.xlsx
+++ b/kma_mm/kma_be/src/exports/phulucbang/phu_luc_bang_diem_sinh_vien_2.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="42">
   <si>
     <t>BAN CƠ YẾU CHÍNH PHỦ</t>
   </si>
@@ -31,79 +31,46 @@
     <t>I. THÔNG TIN VỀ VĂN BẰNG</t>
   </si>
   <si>
-    <t>Họ và tên:</t>
-  </si>
-  <si>
-    <t>Nguyễn Linh</t>
-  </si>
-  <si>
-    <t>Giới tính:</t>
-  </si>
-  <si>
-    <t>Nữ</t>
-  </si>
-  <si>
-    <t>Ngày sinh:</t>
-  </si>
-  <si>
-    <t>16/04/1999</t>
-  </si>
-  <si>
-    <t>Nơi sinh:</t>
-  </si>
-  <si>
-    <t>Bình Xuyên - Vĩnh Phúc</t>
-  </si>
-  <si>
-    <t>Mã số sinh viên:</t>
-  </si>
-  <si>
-    <t>Khóa:</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>Lớp:</t>
-  </si>
-  <si>
-    <t>AT14BT</t>
-  </si>
-  <si>
-    <t>Chuyên ngành đào tạo:</t>
-  </si>
-  <si>
-    <t>An toàn thông tin mạng</t>
-  </si>
-  <si>
-    <t>Hình thức đào tạo:</t>
-  </si>
-  <si>
-    <t>Chính quy</t>
-  </si>
-  <si>
-    <t>Ngôn ngữ đào tạo:</t>
-  </si>
-  <si>
-    <t>Tiếng Việt</t>
+    <t>Họ và tên: Nguyễn Linh</t>
+  </si>
+  <si>
+    <t>Giới tính: Nữ</t>
+  </si>
+  <si>
+    <t>Ngày sinh: 16/07/2004</t>
+  </si>
+  <si>
+    <t>Nơi sinh: Thanh Hoá</t>
+  </si>
+  <si>
+    <t>Mã số sinh viên: CT0703</t>
+  </si>
+  <si>
+    <t>Khóa: 19</t>
+  </si>
+  <si>
+    <t>Lớp: AT14BT</t>
+  </si>
+  <si>
+    <t>Chuyên ngành đào tạo: An toàn thông tin mạng</t>
+  </si>
+  <si>
+    <t>Hình thức đào tạo: Chính quy</t>
+  </si>
+  <si>
+    <t>Ngôn ngữ đào tạo: Tiếng Việt</t>
   </si>
   <si>
     <t>Ngày nhập học:</t>
   </si>
   <si>
-    <t>Thời gian đào tạo:</t>
-  </si>
-  <si>
-    <t>2017-2025</t>
+    <t>Thời gian đào tạo: 2017-2025</t>
   </si>
   <si>
     <t>Trình độ đào tạo:</t>
   </si>
   <si>
-    <t>Xếp hạng tốt nghiệp:</t>
-  </si>
-  <si>
-    <t>Khá</t>
+    <t>Xếp hạng tốt nghiệp: Khá</t>
   </si>
   <si>
     <t>Số hiệu văn bằng:</t>
@@ -604,7 +571,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O45"/>
+  <dimension ref="A1:O46"/>
   <sheetFormatPr defaultRowHeight="18" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4.5" customWidth="1"/>
@@ -666,697 +633,663 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="E7" t="s">
+      <c r="H7" t="s">
         <v>7</v>
       </c>
-      <c r="J7" t="s">
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="M7" t="s">
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="H13" t="s">
         <v>15</v>
       </c>
-      <c r="E11" t="s">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="J11" t="s">
+      <c r="H14" t="s">
         <v>17</v>
       </c>
-      <c r="M11" t="s">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="H15" t="s">
         <v>19</v>
       </c>
-      <c r="E12" t="s">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="H16" t="s">
         <v>21</v>
       </c>
-      <c r="E13" t="s">
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J13" t="s">
+    </row>
+    <row r="20" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M13" t="s">
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+    </row>
+    <row r="21" ht="13" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B21" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="J14" t="s">
-        <v>26</v>
-      </c>
-      <c r="M14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="J15" t="s">
-        <v>29</v>
-      </c>
-      <c r="M15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>31</v>
-      </c>
-      <c r="J16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-    </row>
-    <row r="20" ht="13" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L20" s="7"/>
-    </row>
-    <row r="21" ht="13" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
+      <c r="G21" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="H21" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K21" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="L21" s="7"/>
     </row>
-    <row r="22" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-    </row>
-    <row r="23" ht="13" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L23" s="7"/>
+    <row r="22" ht="13" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+    </row>
+    <row r="23" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
     </row>
     <row r="24" ht="13" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
+      <c r="A24" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
+      <c r="G24" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="H24" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K24" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="L24" s="7"/>
     </row>
-    <row r="25" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-    </row>
-    <row r="26" ht="13" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L26" s="7"/>
+    <row r="25" ht="13" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+    </row>
+    <row r="26" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
     </row>
     <row r="27" ht="13" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
+      <c r="A27" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
+      <c r="G27" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="H27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K27" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="L27" s="7"/>
     </row>
-    <row r="28" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-    </row>
-    <row r="29" ht="13" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L29" s="7"/>
+    <row r="28" ht="13" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+    </row>
+    <row r="29" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
     </row>
     <row r="30" ht="13" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
+      <c r="A30" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
+      <c r="G30" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="H30" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K30" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="L30" s="7"/>
     </row>
-    <row r="31" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-    </row>
-    <row r="32" ht="13" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
+    <row r="31" ht="13" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+    </row>
+    <row r="32" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L32" s="7"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
     </row>
     <row r="33" ht="13" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
+      <c r="A33" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
+      <c r="G33" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="H33" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I33" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K33" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="L33" s="7"/>
     </row>
-    <row r="34" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-    </row>
-    <row r="35" ht="13" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" s="7" t="s">
+    <row r="34" ht="13" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+    </row>
+    <row r="35" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L35" s="7"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
     </row>
     <row r="36" ht="13" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
+      <c r="A36" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
+      <c r="G36" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="H36" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I36" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K36" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="L36" s="7"/>
     </row>
-    <row r="37" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-    </row>
-    <row r="38" ht="13" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7" t="s">
+    <row r="37" ht="13" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+    </row>
+    <row r="38" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H38" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L38" s="7"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
     </row>
     <row r="39" ht="13" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
+      <c r="A39" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
+      <c r="G39" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="H39" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I39" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="J39" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K39" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="L39" s="7"/>
     </row>
-    <row r="40" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
-    </row>
-    <row r="41" ht="13" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H41" s="7" t="s">
+    <row r="40" ht="13" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+    </row>
+    <row r="41" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L41" s="7"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
     </row>
     <row r="42" ht="13" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
+      <c r="A42" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
+      <c r="G42" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="H42" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I42" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="J42" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K42" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="L42" s="7"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>50</v>
-      </c>
-      <c r="B43" t="s">
-        <v>50</v>
-      </c>
-      <c r="C43" t="s">
-        <v>50</v>
-      </c>
-      <c r="D43" t="s">
-        <v>50</v>
-      </c>
-      <c r="E43" t="s">
-        <v>50</v>
-      </c>
-      <c r="F43" t="s">
-        <v>50</v>
-      </c>
-      <c r="G43" t="s">
-        <v>50</v>
-      </c>
-      <c r="H43" t="s">
-        <v>50</v>
-      </c>
-      <c r="I43" t="s">
-        <v>50</v>
-      </c>
-      <c r="J43" t="s">
-        <v>50</v>
-      </c>
-      <c r="K43" t="s">
-        <v>50</v>
-      </c>
-      <c r="L43" t="s">
-        <v>50</v>
-      </c>
+    <row r="43" ht="13" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B44" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C44" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D44" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E44" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F44" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="G44" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="H44" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="I44" t="s">
-        <v>50</v>
-      </c>
-      <c r="J44" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="J44" t="s">
+        <v>39</v>
+      </c>
+      <c r="K44" t="s">
+        <v>39</v>
+      </c>
+      <c r="L44" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B45" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C45" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D45" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E45" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F45" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="G45" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="H45" t="s">
-        <v>50</v>
-      </c>
-      <c r="I45" t="s">
-        <v>50</v>
-      </c>
-      <c r="J45" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="K45" s="9"/>
-      <c r="L45" s="9"/>
+        <v>39</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>39</v>
+      </c>
+      <c r="B46" t="s">
+        <v>39</v>
+      </c>
+      <c r="C46" t="s">
+        <v>39</v>
+      </c>
+      <c r="D46" t="s">
+        <v>39</v>
+      </c>
+      <c r="E46" t="s">
+        <v>39</v>
+      </c>
+      <c r="F46" t="s">
+        <v>39</v>
+      </c>
+      <c r="G46" t="s">
+        <v>39</v>
+      </c>
+      <c r="H46" t="s">
+        <v>39</v>
+      </c>
+      <c r="I46" t="s">
+        <v>39</v>
+      </c>
+      <c r="J46" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="55">
@@ -1365,56 +1298,56 @@
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="J2:O2"/>
     <mergeCell ref="D4:K4"/>
-    <mergeCell ref="A19:L19"/>
-    <mergeCell ref="B20:F21"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="K20:L21"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="A22:L22"/>
-    <mergeCell ref="B23:F24"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:L24"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="A25:L25"/>
-    <mergeCell ref="B26:F27"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="K26:L27"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="A28:L28"/>
-    <mergeCell ref="B29:F30"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="K29:L30"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="A31:L31"/>
-    <mergeCell ref="B32:F33"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="K32:L33"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="A34:L34"/>
-    <mergeCell ref="B35:F36"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="K35:L36"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="A37:L37"/>
-    <mergeCell ref="B38:F39"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="K38:L39"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="A40:L40"/>
-    <mergeCell ref="B41:F42"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="K41:L42"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="J44:L44"/>
-    <mergeCell ref="J45:L45"/>
+    <mergeCell ref="A20:L20"/>
+    <mergeCell ref="B21:F22"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:L22"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="A23:L23"/>
+    <mergeCell ref="B24:F25"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K24:L25"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="A26:L26"/>
+    <mergeCell ref="B27:F28"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="K27:L28"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="A29:L29"/>
+    <mergeCell ref="B30:F31"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="K30:L31"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="A32:L32"/>
+    <mergeCell ref="B33:F34"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="K33:L34"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="A35:L35"/>
+    <mergeCell ref="B36:F37"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="K36:L37"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="A38:L38"/>
+    <mergeCell ref="B39:F40"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="K39:L40"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="A41:L41"/>
+    <mergeCell ref="B42:F43"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="K42:L43"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="I45:M45"/>
+    <mergeCell ref="J46:L46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="0"/>
